--- a/FlightCheckwithdatatable/Default.xlsx
+++ b/FlightCheckwithdatatable/Default.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Denver</t>
   </si>
   <si>
     <t>Seattle</t>
+  </si>
+  <si>
+    <t>Sydney</t>
   </si>
   <si>
     <t>London</t>
@@ -190,7 +193,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -201,9 +206,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -525,15 +528,17 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -544,44 +549,46 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1">
+    <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
